--- a/backend/authentication/init_data/student.xlsx
+++ b/backend/authentication/init_data/student.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheriewang/Desktop/SE-TSS/backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\w\SE-TSS\backend\authentication\init_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D3AF2B5-C544-4A36-8509-A3BE1C3EB358}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1560" windowWidth="24560" windowHeight="13400" tabRatio="500"/>
+    <workbookView xWindow="1044" yWindow="1560" windowWidth="24564" windowHeight="13404" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -596,13 +597,56 @@
       <t>ban</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>000000000000000026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000000027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000000028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1@152.com</t>
+  </si>
+  <si>
+    <t>1@153.com</t>
+  </si>
+  <si>
+    <t>1@154.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -663,6 +707,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -930,21 +977,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -973,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>112</v>
       </c>
@@ -1002,7 +1050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>3150100001</v>
       </c>
@@ -1031,7 +1079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>3150100002</v>
       </c>
@@ -1060,7 +1108,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>3150100003</v>
       </c>
@@ -1089,7 +1137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>3150100004</v>
       </c>
@@ -1118,7 +1166,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>3150100005</v>
       </c>
@@ -1147,7 +1195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>3150100006</v>
       </c>
@@ -1176,7 +1224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>3150100007</v>
       </c>
@@ -1205,7 +1253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>3150100008</v>
       </c>
@@ -1234,7 +1282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>3150100009</v>
       </c>
@@ -1263,7 +1311,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>3150100010</v>
       </c>
@@ -1292,7 +1340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>3150100011</v>
       </c>
@@ -1321,7 +1369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>3150100012</v>
       </c>
@@ -1350,7 +1398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>3150100013</v>
       </c>
@@ -1379,7 +1427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>3150100014</v>
       </c>
@@ -1408,7 +1456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>3150100015</v>
       </c>
@@ -1437,7 +1485,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>3150100016</v>
       </c>
@@ -1466,7 +1514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>3150100017</v>
       </c>
@@ -1495,7 +1543,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>3150100018</v>
       </c>
@@ -1524,7 +1572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>3150100019</v>
       </c>
@@ -1553,7 +1601,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>3150100020</v>
       </c>
@@ -1582,7 +1630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>3150100021</v>
       </c>
@@ -1611,7 +1659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>3150100022</v>
       </c>
@@ -1640,7 +1688,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>3150100023</v>
       </c>
@@ -1669,7 +1717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>3150100024</v>
       </c>
@@ -1698,7 +1746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>3150100025</v>
       </c>
@@ -1726,13 +1774,105 @@
       <c r="I27" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>2015</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>2015</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>2015</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D27" r:id="rId2" display="1@126.com"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3:D27" r:id="rId2" display="1@126.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D28:D30" r:id="rId3" display="1@126.com" xr:uid="{E4A7D8EF-0A78-46AC-B2A4-239C12B11CEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
--- a/backend/authentication/init_data/student.xlsx
+++ b/backend/authentication/init_data/student.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheriewang/git/Data/SE-TSS/backend/authentication/init_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LSH\Desktop\Program\SE-TSS\backend\authentication\init_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{66882FBC-E4EF-4EA4-A8DA-9BF4296CE40E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1560" windowWidth="24560" windowHeight="13400" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1560" windowWidth="24560" windowHeight="13400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -615,13 +616,58 @@
       <t>wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000000022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000000023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000000024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1@148.com</t>
+  </si>
+  <si>
+    <t>1@149.com</t>
+  </si>
+  <si>
+    <t>1@150.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -952,22 +998,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="27.4609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.15234375" customWidth="1"/>
+    <col min="4" max="4" width="17.15234375" customWidth="1"/>
+    <col min="7" max="7" width="22.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -1025,7 +1071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -1054,7 +1100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
@@ -1083,7 +1129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1112,7 +1158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
@@ -1141,7 +1187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
@@ -1170,7 +1216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -1199,7 +1245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
@@ -1228,7 +1274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -1257,7 +1303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
@@ -1286,7 +1332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -1315,7 +1361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -1344,7 +1390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>88</v>
       </c>
@@ -1373,7 +1419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
@@ -1402,7 +1448,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>94</v>
       </c>
@@ -1431,7 +1477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
@@ -1460,7 +1506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>89</v>
       </c>
@@ -1489,7 +1535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -1518,7 +1564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>87</v>
       </c>
@@ -1547,7 +1593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>91</v>
       </c>
@@ -1576,7 +1622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -1605,7 +1651,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>93</v>
       </c>
@@ -1619,7 +1665,7 @@
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23">
         <v>2015</v>
@@ -1634,44 +1680,118 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>2015</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>2015</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>2015</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" s="2"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="B28" s="2"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="B29" s="2"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="B30" s="2"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="B31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D27" r:id="rId2" display="1@126.com"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>